--- a/u6/Results.xlsx
+++ b/u6/Results.xlsx
@@ -350,7 +350,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/u6/Results.xlsx
+++ b/u6/Results.xlsx
@@ -24,12 +24,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
   <si>
     <t>Original</t>
   </si>
   <si>
     <t>checksum</t>
+  </si>
+  <si>
+    <t>mpi</t>
+  </si>
+  <si>
+    <t>hpc</t>
+  </si>
+  <si>
+    <t>Metis</t>
   </si>
 </sst>
 </file>
@@ -347,10 +356,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -359,6 +368,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
       <c r="B1">
         <v>2</v>
       </c>
@@ -401,8 +413,70 @@
         <v>24.75</v>
       </c>
     </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>153.69</v>
+      </c>
+      <c r="C6">
+        <v>111.65</v>
+      </c>
+      <c r="D6">
+        <v>62.66</v>
+      </c>
+      <c r="E6">
+        <v>33.549999999999997</v>
+      </c>
+      <c r="F6">
+        <v>18.920000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>154.04</v>
+      </c>
+      <c r="C7">
+        <v>85.74</v>
+      </c>
+      <c r="D7">
+        <v>51.75</v>
+      </c>
+      <c r="E7">
+        <v>79.17</v>
+      </c>
+      <c r="F7">
+        <v>54.77</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:F35">
+  <conditionalFormatting sqref="B2:F3">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6:F7">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
